--- a/data_finance.xlsx
+++ b/data_finance.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1370"/>
+  <dimension ref="A1:K1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57399,6 +57399,97 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45590.00589120371</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>80</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>25</v>
+      </c>
+      <c r="I1371" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1371" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1371" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45590.00638888889</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
+      <c r="K1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45590.00638888889</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
+      <c r="K1373" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_finance.xlsx
+++ b/data_finance.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1377"/>
+  <dimension ref="A1:K1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57686,6 +57686,117 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45593.68137731482</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>90</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1378" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1378" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="K1378" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45593.68137731482</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1379" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="K1379" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45593.6824537037</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Bills</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E1380" t="inlineStr">
+        <is>
+          <t>Fees</t>
+        </is>
+      </c>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
+      <c r="K1380" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_finance.xlsx
+++ b/data_finance.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1380"/>
+  <dimension ref="A1:K1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57790,12 +57790,544 @@
           <t>Fees</t>
         </is>
       </c>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
-      <c r="K1380" t="inlineStr"/>
+      <c r="F1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>28</v>
+      </c>
+      <c r="I1380" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1380" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="K1380" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45594.29864583333</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1381" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="K1381" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45594.29984953703</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>85</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1382" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1382" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="K1382" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1383" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1383" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1383" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1384" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1384" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1385" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1385" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1386" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1386" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1387" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1387" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>160</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Bills</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>Mobile</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1388" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1388" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>95</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1389" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1389" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45595.06886574074</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1390" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1390" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45595.0721412037</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>Bills</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>Bank Fees</t>
+        </is>
+      </c>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1391" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="K1391" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45596.79921296296</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
+      <c r="K1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45596.79921296296</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="inlineStr"/>
+      <c r="H1393" t="inlineStr"/>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+      <c r="K1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45596.79921296296</v>
+      </c>
+      <c r="B1394" t="inlineStr"/>
+      <c r="C1394" t="inlineStr"/>
+      <c r="D1394" t="inlineStr"/>
+      <c r="E1394" t="inlineStr"/>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="inlineStr"/>
+      <c r="H1394" t="inlineStr"/>
+      <c r="I1394" t="inlineStr"/>
+      <c r="J1394" t="inlineStr"/>
+      <c r="K1394" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_finance.xlsx
+++ b/data_finance.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1392"/>
+  <dimension ref="A1:K1394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +540,7 @@
         <v>45198</v>
       </c>
       <c r="B3" t="n">
-        <v>9000</v>
+        <v>9277</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -58303,6 +58303,88 @@
       </c>
       <c r="K1392" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45597.89170138889</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>19997</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="E1393" t="inlineStr"/>
+      <c r="F1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1393" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1393" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45597.89193287037</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>450</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>Loan Back In</t>
+        </is>
+      </c>
+      <c r="E1394" t="inlineStr"/>
+      <c r="F1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1394" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1394" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data_finance.xlsx
+++ b/data_finance.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1394"/>
+  <dimension ref="A1:K1406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58387,6 +58387,498 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>140</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1395" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1395" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1395" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="E1396" t="inlineStr"/>
+      <c r="F1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1396" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1396" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1396" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>Bus/train Rides</t>
+        </is>
+      </c>
+      <c r="E1397" t="inlineStr"/>
+      <c r="F1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1397" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1397" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1397" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr"/>
+      <c r="F1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1398" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1398" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1398" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>Smoking</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr"/>
+      <c r="F1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1399" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1399" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr"/>
+      <c r="F1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1400" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1400" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>90</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>Dining Out</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr"/>
+      <c r="F1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1401" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1401" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1401" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45597.71425925926</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
+      <c r="F1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1402" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1402" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1402" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45598.71425925926</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>Coffee</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr"/>
+      <c r="F1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1403" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1403" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="K1403" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45598.72329861111</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Fees</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>Prlv Axa</t>
+        </is>
+      </c>
+      <c r="E1404" t="inlineStr"/>
+      <c r="F1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1404" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1404" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="K1404" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45598.72329861111</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>Spotify</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr"/>
+      <c r="F1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1405" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1405" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="K1405" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45598.72329861111</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>960</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Debt Payments</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr"/>
+      <c r="F1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>11</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1406" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="J1406" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="K1406" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
